--- a/data/planting_stats-2023.xlsx
+++ b/data/planting_stats-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\zivmax\CUMCM_2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC58DDE-8FEB-4AE4-89C2-A0F35B0DBF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E925C9E3-942F-44EE-BA85-D91AAFEA3171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38310" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023年的农作物种植情况" sheetId="4" r:id="rId1"/>
@@ -1066,7 +1066,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>地块编号</t>
+    <t>地块名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1310,15 +1310,6 @@
     <xf numFmtId="57" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1326,6 +1317,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1640,8 +1640,8 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:F29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1653,22 +1653,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="12" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="4">
@@ -2213,7 +2213,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="4">
         <v>36</v>
       </c>
@@ -2231,7 +2231,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="4">
@@ -2251,7 +2251,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="4">
         <v>35</v>
       </c>
@@ -2269,7 +2269,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="4">
@@ -2289,7 +2289,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="4">
         <v>35</v>
       </c>
@@ -2307,7 +2307,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="4">
@@ -2327,7 +2327,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="4">
         <v>35</v>
       </c>
@@ -2345,7 +2345,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="14" t="s">
         <v>92</v>
       </c>
       <c r="B36" s="4">
@@ -2365,7 +2365,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="4">
         <v>36</v>
       </c>
@@ -2383,7 +2383,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B38" s="4">
@@ -2403,7 +2403,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="4">
         <v>37</v>
       </c>
@@ -2461,7 +2461,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B42" s="4">
@@ -2481,7 +2481,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="4">
         <v>38</v>
       </c>
@@ -2499,7 +2499,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B44" s="4">
@@ -2519,7 +2519,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="4">
         <v>38</v>
       </c>
@@ -2537,7 +2537,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B46" s="4">
@@ -2557,7 +2557,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
+      <c r="A47" s="15"/>
       <c r="B47" s="4">
         <v>38</v>
       </c>
@@ -2575,7 +2575,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B48" s="4">
@@ -2595,7 +2595,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="4">
         <v>39</v>
       </c>
@@ -2613,7 +2613,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B50" s="4">
@@ -2633,7 +2633,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="4">
         <v>39</v>
       </c>
@@ -2651,7 +2651,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="14" t="s">
         <v>80</v>
       </c>
       <c r="B52" s="4">
@@ -2671,7 +2671,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="4">
         <v>39</v>
       </c>
@@ -2689,7 +2689,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B54" s="4">
@@ -2709,7 +2709,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="4">
         <v>40</v>
       </c>
@@ -2727,7 +2727,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B56" s="4">
@@ -2747,7 +2747,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="4">
         <v>40</v>
       </c>
@@ -2765,7 +2765,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B58" s="4">
@@ -2785,7 +2785,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="4">
         <v>40</v>
       </c>
@@ -2803,7 +2803,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="14" t="s">
         <v>83</v>
       </c>
       <c r="B60" s="4">
@@ -2823,7 +2823,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="4">
         <v>41</v>
       </c>
@@ -2841,7 +2841,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="14" t="s">
         <v>84</v>
       </c>
       <c r="B62" s="4">
@@ -2861,7 +2861,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
+      <c r="A63" s="15"/>
       <c r="B63" s="4">
         <v>41</v>
       </c>
@@ -2879,7 +2879,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B64" s="4">
@@ -2899,7 +2899,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
+      <c r="A65" s="15"/>
       <c r="B65" s="4">
         <v>41</v>
       </c>
@@ -2917,7 +2917,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B66" s="4">
@@ -2937,7 +2937,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="4">
         <v>41</v>
       </c>
@@ -2955,7 +2955,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B68" s="4">
@@ -2975,7 +2975,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
+      <c r="A69" s="15"/>
       <c r="B69" s="4">
         <v>41</v>
       </c>
@@ -2993,7 +2993,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B70" s="4">
@@ -3013,7 +3013,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
+      <c r="A71" s="16"/>
       <c r="B71" s="4">
         <v>27</v>
       </c>
@@ -3031,7 +3031,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
+      <c r="A72" s="15"/>
       <c r="B72" s="4">
         <v>41</v>
       </c>
@@ -3049,7 +3049,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="14" t="s">
         <v>97</v>
       </c>
       <c r="B73" s="4">
@@ -3069,7 +3069,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="4">
         <v>41</v>
       </c>
@@ -3087,7 +3087,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B75" s="4">
@@ -3107,7 +3107,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="12"/>
+      <c r="A76" s="16"/>
       <c r="B76" s="4">
         <v>33</v>
       </c>
@@ -3125,7 +3125,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="12"/>
+      <c r="A77" s="16"/>
       <c r="B77" s="4">
         <v>24</v>
       </c>
@@ -3143,7 +3143,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
+      <c r="A78" s="15"/>
       <c r="B78" s="4">
         <v>21</v>
       </c>
@@ -3161,7 +3161,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B79" s="4">
@@ -3181,7 +3181,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
+      <c r="A80" s="16"/>
       <c r="B80" s="4">
         <v>26</v>
       </c>
@@ -3199,7 +3199,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A81" s="12"/>
+      <c r="A81" s="16"/>
       <c r="B81" s="4">
         <v>22</v>
       </c>
@@ -3217,7 +3217,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="13"/>
+      <c r="A82" s="15"/>
       <c r="B82" s="4">
         <v>29</v>
       </c>
@@ -3235,7 +3235,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="14" t="s">
         <v>98</v>
       </c>
       <c r="B83" s="4">
@@ -3255,7 +3255,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="12"/>
+      <c r="A84" s="16"/>
       <c r="B84" s="4">
         <v>28</v>
       </c>
@@ -3273,7 +3273,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="13"/>
+      <c r="A85" s="15"/>
       <c r="B85" s="4">
         <v>30</v>
       </c>
@@ -3291,7 +3291,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="14" t="s">
         <v>99</v>
       </c>
       <c r="B86" s="4">
@@ -3311,7 +3311,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
+      <c r="A87" s="16"/>
       <c r="B87" s="4">
         <v>34</v>
       </c>
@@ -3329,7 +3329,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="13"/>
+      <c r="A88" s="15"/>
       <c r="B88" s="4">
         <v>23</v>
       </c>
@@ -3348,12 +3348,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A70:A72"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="A64:A65"/>
@@ -3369,11 +3368,12 @@
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
